--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>56.9427370583775</v>
+        <v>5.983672666666667</v>
       </c>
       <c r="H2">
-        <v>56.9427370583775</v>
+        <v>17.951018</v>
       </c>
       <c r="I2">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="J2">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>403.1013179232</v>
+        <v>141.4288764528971</v>
       </c>
       <c r="R2">
-        <v>403.1013179232</v>
+        <v>1272.859888076074</v>
       </c>
       <c r="S2">
-        <v>0.01773983465151207</v>
+        <v>0.005187364678495226</v>
       </c>
       <c r="T2">
-        <v>0.01773983465151207</v>
+        <v>0.005187364678495226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>56.9427370583775</v>
+        <v>5.983672666666667</v>
       </c>
       <c r="H3">
-        <v>56.9427370583775</v>
+        <v>17.951018</v>
       </c>
       <c r="I3">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="J3">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>10301.74027751039</v>
+        <v>1084.770392005237</v>
       </c>
       <c r="R3">
-        <v>10301.74027751039</v>
+        <v>9762.933528047133</v>
       </c>
       <c r="S3">
-        <v>0.4533628669025453</v>
+        <v>0.03978748722959341</v>
       </c>
       <c r="T3">
-        <v>0.4533628669025453</v>
+        <v>0.0397874872295934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>56.9427370583775</v>
+        <v>5.983672666666667</v>
       </c>
       <c r="H4">
-        <v>56.9427370583775</v>
+        <v>17.951018</v>
       </c>
       <c r="I4">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="J4">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>5760.450884405099</v>
+        <v>664.7893023465002</v>
       </c>
       <c r="R4">
-        <v>5760.450884405099</v>
+        <v>5983.103721118502</v>
       </c>
       <c r="S4">
-        <v>0.2535080925410726</v>
+        <v>0.02438331288576872</v>
       </c>
       <c r="T4">
-        <v>0.2535080925410726</v>
+        <v>0.02438331288576872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>56.9427370583775</v>
+        <v>5.983672666666667</v>
       </c>
       <c r="H5">
-        <v>56.9427370583775</v>
+        <v>17.951018</v>
       </c>
       <c r="I5">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="J5">
-        <v>0.7999022759977295</v>
+        <v>0.07597367825125773</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>1710.844333080734</v>
+        <v>180.3660805491249</v>
       </c>
       <c r="R5">
-        <v>1710.844333080734</v>
+        <v>1623.294724942124</v>
       </c>
       <c r="S5">
-        <v>0.0752914819025996</v>
+        <v>0.006615513457400371</v>
       </c>
       <c r="T5">
-        <v>0.0752914819025996</v>
+        <v>0.006615513457400371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.2443801270962</v>
+        <v>57.33294800000001</v>
       </c>
       <c r="H6">
-        <v>14.2443801270962</v>
+        <v>171.998844</v>
       </c>
       <c r="I6">
-        <v>0.2000977240022704</v>
+        <v>0.7279467289066431</v>
       </c>
       <c r="J6">
-        <v>0.2000977240022704</v>
+        <v>0.7279467289066431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>100.8368880537813</v>
+        <v>1355.109958561521</v>
       </c>
       <c r="R6">
-        <v>100.8368880537813</v>
+        <v>12195.98962705369</v>
       </c>
       <c r="S6">
-        <v>0.004437667755747516</v>
+        <v>0.04970307133041762</v>
       </c>
       <c r="T6">
-        <v>0.004437667755747516</v>
+        <v>0.04970307133041762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.2443801270962</v>
+        <v>57.33294800000001</v>
       </c>
       <c r="H7">
-        <v>14.2443801270962</v>
+        <v>171.998844</v>
       </c>
       <c r="I7">
-        <v>0.2000977240022704</v>
+        <v>0.7279467289066431</v>
       </c>
       <c r="J7">
-        <v>0.2000977240022704</v>
+        <v>0.7279467289066431</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>2577.008272943328</v>
+        <v>10393.79791331765</v>
       </c>
       <c r="R7">
-        <v>2577.008272943328</v>
+        <v>93544.18121985887</v>
       </c>
       <c r="S7">
-        <v>0.1134099508607987</v>
+        <v>0.3812263911247167</v>
       </c>
       <c r="T7">
-        <v>0.1134099508607987</v>
+        <v>0.3812263911247166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.2443801270962</v>
+        <v>57.33294800000001</v>
       </c>
       <c r="H8">
-        <v>14.2443801270962</v>
+        <v>171.998844</v>
       </c>
       <c r="I8">
-        <v>0.2000977240022704</v>
+        <v>0.7279467289066431</v>
       </c>
       <c r="J8">
-        <v>0.2000977240022704</v>
+        <v>0.7279467289066431</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>1440.99241342776</v>
+        <v>6369.721845700591</v>
       </c>
       <c r="R8">
-        <v>1440.99241342776</v>
+        <v>57327.49661130532</v>
       </c>
       <c r="S8">
-        <v>0.06341573696656111</v>
+        <v>0.2336302949082066</v>
       </c>
       <c r="T8">
-        <v>0.06341573696656111</v>
+        <v>0.2336302949082066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>57.33294800000001</v>
+      </c>
+      <c r="H9">
+        <v>171.998844</v>
+      </c>
+      <c r="I9">
+        <v>0.7279467289066431</v>
+      </c>
+      <c r="J9">
+        <v>0.7279467289066431</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.14303933333333</v>
+      </c>
+      <c r="N9">
+        <v>90.42911799999999</v>
+      </c>
+      <c r="O9">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="P9">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="Q9">
+        <v>1728.189306659955</v>
+      </c>
+      <c r="R9">
+        <v>15553.70375993959</v>
+      </c>
+      <c r="S9">
+        <v>0.06338697154330228</v>
+      </c>
+      <c r="T9">
+        <v>0.06338697154330228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2132453333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.6397360000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="J10">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.63579766666667</v>
+      </c>
+      <c r="N10">
+        <v>70.907393</v>
+      </c>
+      <c r="O10">
+        <v>0.06827844587621175</v>
+      </c>
+      <c r="P10">
+        <v>0.06827844587621175</v>
+      </c>
+      <c r="Q10">
+        <v>5.040223552027556</v>
+      </c>
+      <c r="R10">
+        <v>45.36201196824801</v>
+      </c>
+      <c r="S10">
+        <v>0.0001848666148048998</v>
+      </c>
+      <c r="T10">
+        <v>0.0001848666148048998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2132453333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.6397360000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="J11">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>181.2883913333334</v>
+      </c>
+      <c r="N11">
+        <v>543.865174</v>
+      </c>
+      <c r="O11">
+        <v>0.5237009467675041</v>
+      </c>
+      <c r="P11">
+        <v>0.523700946767504</v>
+      </c>
+      <c r="Q11">
+        <v>38.65890343934046</v>
+      </c>
+      <c r="R11">
+        <v>347.9301309540641</v>
+      </c>
+      <c r="S11">
+        <v>0.001417941195887118</v>
+      </c>
+      <c r="T11">
+        <v>0.001417941195887117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2132453333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.6397360000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="J12">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>111.1005463333333</v>
+      </c>
+      <c r="N12">
+        <v>333.301639</v>
+      </c>
+      <c r="O12">
+        <v>0.3209442197221123</v>
+      </c>
+      <c r="P12">
+        <v>0.3209442197221123</v>
+      </c>
+      <c r="Q12">
+        <v>23.69167303636711</v>
+      </c>
+      <c r="R12">
+        <v>213.225057327304</v>
+      </c>
+      <c r="S12">
+        <v>0.000868969272510904</v>
+      </c>
+      <c r="T12">
+        <v>0.000868969272510904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2132453333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.6397360000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="J13">
+        <v>0.002707539874883231</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.14303933333333</v>
+      </c>
+      <c r="N13">
+        <v>90.42911799999999</v>
+      </c>
+      <c r="O13">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="P13">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="Q13">
+        <v>6.427862470316445</v>
+      </c>
+      <c r="R13">
+        <v>57.850762232848</v>
+      </c>
+      <c r="S13">
+        <v>0.0002357627916803094</v>
+      </c>
+      <c r="T13">
+        <v>0.0002357627916803094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.22994666666666</v>
+      </c>
+      <c r="H14">
+        <v>45.68984</v>
+      </c>
+      <c r="I14">
+        <v>0.1933720529672158</v>
+      </c>
+      <c r="J14">
+        <v>0.1933720529672159</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.63579766666667</v>
+      </c>
+      <c r="N14">
+        <v>70.907393</v>
+      </c>
+      <c r="O14">
+        <v>0.06827844587621175</v>
+      </c>
+      <c r="P14">
+        <v>0.06827844587621175</v>
+      </c>
+      <c r="Q14">
+        <v>359.9719378874577</v>
+      </c>
+      <c r="R14">
+        <v>3239.74744098712</v>
+      </c>
+      <c r="S14">
+        <v>0.013203143252494</v>
+      </c>
+      <c r="T14">
+        <v>0.013203143252494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>14.2443801270962</v>
-      </c>
-      <c r="H9">
-        <v>14.2443801270962</v>
-      </c>
-      <c r="I9">
-        <v>0.2000977240022704</v>
-      </c>
-      <c r="J9">
-        <v>0.2000977240022704</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>30.0449964554177</v>
-      </c>
-      <c r="N9">
-        <v>30.0449964554177</v>
-      </c>
-      <c r="O9">
-        <v>0.0941258503217627</v>
-      </c>
-      <c r="P9">
-        <v>0.0941258503217627</v>
-      </c>
-      <c r="Q9">
-        <v>427.9723504282276</v>
-      </c>
-      <c r="R9">
-        <v>427.9723504282276</v>
-      </c>
-      <c r="S9">
-        <v>0.01883436841916309</v>
-      </c>
-      <c r="T9">
-        <v>0.01883436841916309</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.22994666666666</v>
+      </c>
+      <c r="H15">
+        <v>45.68984</v>
+      </c>
+      <c r="I15">
+        <v>0.1933720529672158</v>
+      </c>
+      <c r="J15">
+        <v>0.1933720529672159</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>181.2883913333334</v>
+      </c>
+      <c r="N15">
+        <v>543.865174</v>
+      </c>
+      <c r="O15">
+        <v>0.5237009467675041</v>
+      </c>
+      <c r="P15">
+        <v>0.523700946767504</v>
+      </c>
+      <c r="Q15">
+        <v>2761.012531292462</v>
+      </c>
+      <c r="R15">
+        <v>24849.11278163216</v>
+      </c>
+      <c r="S15">
+        <v>0.1012691272173069</v>
+      </c>
+      <c r="T15">
+        <v>0.1012691272173069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.22994666666666</v>
+      </c>
+      <c r="H16">
+        <v>45.68984</v>
+      </c>
+      <c r="I16">
+        <v>0.1933720529672158</v>
+      </c>
+      <c r="J16">
+        <v>0.1933720529672159</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>111.1005463333333</v>
+      </c>
+      <c r="N16">
+        <v>333.301639</v>
+      </c>
+      <c r="O16">
+        <v>0.3209442197221123</v>
+      </c>
+      <c r="P16">
+        <v>0.3209442197221123</v>
+      </c>
+      <c r="Q16">
+        <v>1692.055395294195</v>
+      </c>
+      <c r="R16">
+        <v>15228.49855764776</v>
+      </c>
+      <c r="S16">
+        <v>0.06206164265562605</v>
+      </c>
+      <c r="T16">
+        <v>0.06206164265562606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.22994666666666</v>
+      </c>
+      <c r="H17">
+        <v>45.68984</v>
+      </c>
+      <c r="I17">
+        <v>0.1933720529672158</v>
+      </c>
+      <c r="J17">
+        <v>0.1933720529672159</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.14303933333333</v>
+      </c>
+      <c r="N17">
+        <v>90.42911799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="P17">
+        <v>0.08707638763417187</v>
+      </c>
+      <c r="Q17">
+        <v>459.0768814179021</v>
+      </c>
+      <c r="R17">
+        <v>4131.691932761119</v>
+      </c>
+      <c r="S17">
+        <v>0.0168381398417889</v>
+      </c>
+      <c r="T17">
+        <v>0.0168381398417889</v>
       </c>
     </row>
   </sheetData>
